--- a/data/diets_cetaceans/recap/Recap_sources_diets.xlsx
+++ b/data/diets_cetaceans/recap/Recap_sources_diets.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023\Analyses\01.Excretion_global\data\diets_pred\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\Analyses\Cetacean.excretion.global\data\diets_cetaceans\recap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C78A4-C28E-494C-AECA-53BC1B1A2AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D318C3-3BC1-4520-9BAD-AE713EF087A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BAFE4AF7-CC4D-4A23-9C9D-71595E1E4681}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BAFE4AF7-CC4D-4A23-9C9D-71595E1E4681}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$S$289</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="538">
   <si>
     <t>Species</t>
   </si>
@@ -1627,6 +1643,18 @@
   </si>
   <si>
     <t>bycaught and stranded</t>
+  </si>
+  <si>
+    <t>Nombre de Source</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>(vide)</t>
+  </si>
+  <si>
+    <t>Total général</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1767,12 +1795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,6 +1807,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,6 +1830,3596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lgilbe01" refreshedDate="44846.449828240744" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="289" xr:uid="{A7123CC7-F5FA-441F-8A2E-C08EAAEA798A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Species" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="List of surveys " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Source" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Zone" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Study area" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="n" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6777"/>
+    </cacheField>
+    <cacheField name="%W" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Used as quantitative" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="yes"/>
+        <s v="no"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Used as qualitative" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="no"/>
+        <s v="yes"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Comment" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="289">
+  <r>
+    <s v="Balaenoptera acutorostrata"/>
+    <s v="SCANS III, Observe, t-NASS, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA NC-WF"/>
+    <s v="Pierce et al 2004"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Haug et al 1996"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <n v="92"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, 5 areas, %W in a graph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Haug et al 1995"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <n v="132"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, 4 areas + 4 seasons, %W in a graph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Haug et al 1995"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <n v="155"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, 5 areas + 4 seasons, %W in a graph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lindstrø et al 1997"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <n v="148"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, 2 areas, %W in a graph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Víkingsson et al 2014"/>
+    <s v="Iceland"/>
+    <s v="yes"/>
+    <n v="190"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, 2 areas, %W in a graph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gavrilchuck et al 2014"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="yes/no"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Stable isotopes, mean %contribution in a graph, coulb eventually be taken "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lydersen et al 1991"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <n v="15"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Windsland et al 2007"/>
+    <s v="North Sea and Norway"/>
+    <s v="yes/no but close"/>
+    <n v="210"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="whaling, 5 areas with %W for each and total"/>
+  </r>
+  <r>
+    <s v="Balaenoptera bonaerensis"/>
+    <s v="REMMOA Indian + NC-WF"/>
+    <s v="Tamura &amp; Kenji 2009"/>
+    <s v="Southern ocean"/>
+    <s v="no but close "/>
+    <n v="6777"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="whaling, I think %W is just raw weight, list of preys, mention also E. superba as main prey"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Friedlaender et al 2014"/>
+    <s v="Southern ocean"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events with multi-sensor tags, mention krill Euphausia superba as unique prey on observed events"/>
+  </r>
+  <r>
+    <s v="Balaenoptera borealis"/>
+    <s v="Watl &amp; GoM, Hawai, California current, REMMOA NC-WF, REMMOA Ant + Guy"/>
+    <s v="Watkins &amp; Schevill 1979"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Flinn et al 2002"/>
+    <s v="British Columbia"/>
+    <s v="no but close "/>
+    <n v="1453"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="whaling, %N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kawamura 1969"/>
+    <s v="Southern ocean"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Whaling, pregnant whale, stomach only contained Calanus (copepods)"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Nishimoto et al 1952"/>
+    <s v="West Pacific"/>
+    <s v="no"/>
+    <n v="8"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of species "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Horwood 2018"/>
+    <s v="encyclopedia of MM"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of prey species, preferred prey = copepods"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Leonardi et al 2011"/>
+    <s v="Argentina"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Parasited animal, but species of crustaceans in stomach content mentionned"/>
+  </r>
+  <r>
+    <s v="Balaenoptera edeni"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA NC-WF"/>
+    <s v="Siciliano et al 2004"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events with identified preys"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Tershy et al 1992"/>
+    <s v="Gulf of California"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events on schooling fish"/>
+  </r>
+  <r>
+    <s v="Balaenoptera musculus"/>
+    <s v="t-NASS, Watl &amp; GoM, REMMOA Indian, Hawai, California current"/>
+    <s v="Gavrilchuck et al 2014"/>
+    <s v="St Laurent Gulf"/>
+    <s v="no"/>
+    <n v="143"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="stable isotopes, see mean contributions in Lesage et al 2018 p3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lesage et al 2018"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Mention prey items with % "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Figueiredo et al 2014"/>
+    <s v="South east Atlantic"/>
+    <s v="no"/>
+    <n v="180"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="whaling, zooplankton with no further identification "/>
+  </r>
+  <r>
+    <s v="Balaenoptera omurai"/>
+    <s v="REMMOA NC-WF"/>
+    <s v="Cerchio &amp; Tadasu 2018"/>
+    <s v="encyclopedia of MM"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Mention prey items or families"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Laboute &amp; Borsa 2018"/>
+    <s v="Mozambique"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, on zooplanktoon"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Cerchio et al 2015"/>
+    <s v="Madagascar"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events only on zooplankton"/>
+  </r>
+  <r>
+    <s v="Balaenoptera physalus"/>
+    <s v="SCANS III, Observe, ASI, t-NASS, REMMOA Ant + Guy, Watl &amp; GoM, Hawai, California current, REMMOA NC-WF"/>
+    <s v="Víkingsson 1997"/>
+    <s v="Iceland"/>
+    <s v="yes"/>
+    <n v="1524"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="%W of family "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Watkins &amp; Schevill 1979"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Observation of feeding events, feeding on schooling fish"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Canese et al 2006"/>
+    <s v="SCmed"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, preying on Euphausiid "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Tershy et al 1992"/>
+    <s v="Gulf of California"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events on Euphausiid exclusively"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Flinn et al 2002"/>
+    <s v="British Columbia"/>
+    <s v="no but close "/>
+    <n v="578"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="whaling, %N, %O, main items in %O are euphausiids with sometimes copepods and miscellaneous fish"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ryan et al 2014"/>
+    <s v="Celtic Sea"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis + bayesian modelling, main items = krill Meganyctiphanes norvegica &amp; Nyctiphanes couchii"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gavrilchuck et al 2014"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="yes/no"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Stable isotopes, mean %contribution in a graph, could eventually be taken "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ruchonnet et al 2006"/>
+    <s v="Mediterranean Sea"/>
+    <s v="yes"/>
+    <n v="7"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="fatty acid composition "/>
+  </r>
+  <r>
+    <s v="Berardius bairdii"/>
+    <s v="California current"/>
+    <s v="Walker et al 2002"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="127"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ohizumi et al 2003"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="28"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mix of two sets, looks coherent with qualitative data from Walker et al 2002"/>
+  </r>
+  <r>
+    <s v="Delphinus capensis "/>
+    <s v="REMMOA Guy, California current"/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="6"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="bycaught, not %W but total weight in g, and not mentionned how computed"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ambrose et al 2013"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="95"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Garcia-Godos et al 2007"/>
+    <s v="Peru"/>
+    <s v="no "/>
+    <n v="117"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ahn et al 2014"/>
+    <s v="Korea"/>
+    <s v="no"/>
+    <n v="30"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Perrin 2009"/>
+    <s v="encyclopedia of MM"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Families of preys and habits mentioned"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="César de Oliveira Santos et al 2002"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Prey species "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Osnes-Erie 1999"/>
+    <s v="California"/>
+    <s v="no but close "/>
+    <s v="14 (bycatch) + 35 (stranded)"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <s v="Delphinus delphis"/>
+    <s v="SCANS III, Observe, ASI, Watl, California current"/>
+    <s v="Pusineri et al 2007"/>
+    <s v="Oceanic Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="63"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Meynier et al 2008"/>
+    <s v="Neritic Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="71"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Marçalo et al 2018"/>
+    <s v="Portugal"/>
+    <s v="yes"/>
+    <n v="150"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gimenez et al 2018"/>
+    <s v="Alboran sea"/>
+    <s v="yes"/>
+    <n v="37"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Milani et al 2019"/>
+    <s v="Aegean sea"/>
+    <s v="yes"/>
+    <n v="8"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2013"/>
+    <s v="Galicia"/>
+    <s v="yes"/>
+    <n v="514"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="n too low plus there is many with other ref, each had only eaten one prey"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Brophy et al 2009"/>
+    <s v="Ireland"/>
+    <s v="yes"/>
+    <n v="129"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="neritic / oceanic differences "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Meynier et al 2008"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <n v="53"/>
+    <s v="yes"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="bycaught and stranded"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2014"/>
+    <s v="Iberian coast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="ecosystem model quantifying predation on commercial species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lahaye et al 2005"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="57"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="trace metal measurements for segregation "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Osnes-Erie 1999"/>
+    <s v="California"/>
+    <s v="no but close "/>
+    <s v="14 (bycatch) + 35 (stranded)"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Perrin 2009"/>
+    <s v="encyclopedia of MM"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Families of preys and habits mentioned"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="53"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="% by modified volume…. "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Doksaeter et al 2008"/>
+    <s v="Mid-Atlantic Ridge"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="spatial correlations occurrence-prey"/>
+  </r>
+  <r>
+    <s v="Eubalaena glacialis"/>
+    <s v="Watl &amp; GoM"/>
+    <s v="Watkins &amp; Schevill 1979"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events on zooplankton"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Pendleton et al 2012"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Modelling, mentioned that Calanus are main preys but can't find the source"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kenney 2009"/>
+    <s v="encyclopedia of MM"/>
+    <m/>
+    <m/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="feed exclusively on Zooplankton"/>
+  </r>
+  <r>
+    <s v="Feresa attenuata"/>
+    <s v="REMMOA Ant + Guy, GoM, REMMOA Indian, REMMOA Poly + NC-WF"/>
+    <s v="López-Suárez et al 2012"/>
+    <s v="Capo Verde"/>
+    <s v="no"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="very qualitative (small schooling fish)"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="O'Dwyer et al 2015"/>
+    <s v="Capo Verde"/>
+    <s v="no"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="%N, individuals of López-Suárez et al 2012"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Elorriaga-Verplancken et al 2016"/>
+    <s v="Gulf of California"/>
+    <s v="no but close "/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Only one species found (ceph) + isotope signature of teutophageous species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Zerbini &amp; Santos 1997"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="List of prey species of cephalopods, but also fish lenses found"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="same individual as Zerbini &amp; Santos 1997"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Donahue &amp; Perryman 2009"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="mentions remnants of fish and cephalopods for individuals, and that's all!"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Baird 2018"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Say they feed both on cephalopods (squids+octopus) and fish"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2 prey species only  (fish - Gobiidae &amp; Merlucciidae), one individual"/>
+  </r>
+  <r>
+    <s v="Grampus griseus"/>
+    <s v="SCANS III, Observe, ASI, REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="MacLeod et al 2014"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="11"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Plön et al 2020"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="27"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Separation between genders and age, but mean computable"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang et al 2012"/>
+    <s v="Taiwan"/>
+    <s v="no"/>
+    <n v="27"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Blanco et al 2006"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <n v="15"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Young 1998"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="only cephalopods considered "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Öztürk et al 2007"/>
+    <s v="EMed"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="18"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="% by modified volume…. "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="We used juste the one with no salps in it "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Würtz et al 1992"/>
+    <s v="Pelagos"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <s v="Globicephala macrorhynchus"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Hernández-García et al 1994"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="%N"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Hacker 1986"/>
+    <s v="California"/>
+    <s v="yes"/>
+    <n v="4"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="3 bycaught, list of preys"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Dromby 2018"/>
+    <s v="Madeira"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis + bayesian model"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="only 2 ITEMS, for one individual so well well………."/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Pinela et al 2010"/>
+    <s v="Senegal coast"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="stable isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kiszka et al 2010"/>
+    <s v="French Polynesia"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Costa et al 2020"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Mintzer et al 2008"/>
+    <s v="North Carolina"/>
+    <s v="yes"/>
+    <n v="27"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="%N, %O, not %W but W in g, %W computable but maybe not complete "/>
+  </r>
+  <r>
+    <s v="Globicephala melas"/>
+    <s v="SCANS III, Observe, ASI, t-NASS, Watl &amp; GoM"/>
+    <s v="Santos et al 2014"/>
+    <s v="Iberian coast"/>
+    <s v="yes"/>
+    <n v="32"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="11"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2014"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Desportes et al 1988"/>
+    <s v="Faroe Islands"/>
+    <s v="yes"/>
+    <n v="720"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Beatson et al 2007"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <n v="5"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Beatson et al 2009"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <n v="6"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Beasley et al 2019"/>
+    <s v="Tasmania"/>
+    <s v="no"/>
+    <n v="84"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Monteiro et al 2015"/>
+    <s v="Iberia + Scotland"/>
+    <s v="yes"/>
+    <n v="68"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Isotope analysis showing spatial segregation in diets betwwen N and S"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="de Stephanis et al 2008"/>
+    <s v="Strait of Gibraltar"/>
+    <s v="yes"/>
+    <n v="56"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gannon et al 1997"/>
+    <s v="New York"/>
+    <s v="yes"/>
+    <n v="30"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gannon et al 1997"/>
+    <s v="Chesapeake "/>
+    <s v="yes"/>
+    <n v="8"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="stranded"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="5"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no "/>
+    <n v="5"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="List of prey species, focused on ceph not diets"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Doksaeter et al 2008"/>
+    <s v="Mid-Atlantic Ridge"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="spatial correlations occurrence-prey"/>
+  </r>
+  <r>
+    <s v="Hyperoodon ampullatus"/>
+    <s v="SCANS III, Observe, t-NASS, Watl"/>
+    <s v="Fernandez et al 2014"/>
+    <s v="Scotland/Ireland/Netherland"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2001"/>
+    <s v="North Sea"/>
+    <s v="yes"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Separated between individuals"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Hooker et al 2001"/>
+    <s v="East Canada"/>
+    <s v="?"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Stomach content for 2 (%N only) + Fatty acid and isotope analysis for 3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos &amp; Pierce 2005"/>
+    <s v="North Sea/Scotland/Ireland"/>
+    <s v="yes"/>
+    <n v="6"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Niche overlap analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lick &amp; Piatkowski 1998"/>
+    <s v="Baltic Sea"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="1 species found only"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="MacLeod et al 2003"/>
+    <s v="review"/>
+    <m/>
+    <m/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%W but only for main items"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Kristensen 1980"/>
+    <s v="Faroe Islands"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="only one individual"/>
+  </r>
+  <r>
+    <s v="Hyperoodon planifrons"/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1993"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="not %W but W so can be computed"/>
+  </r>
+  <r>
+    <s v="Indopacetus pacificus"/>
+    <s v="Hawai"/>
+    <s v="Yatabe et al 2010"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Only cephalopods remains, with mostly Taonius pavo"/>
+  </r>
+  <r>
+    <s v="Kogia spp"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Beasley et al 2013"/>
+    <s v="Tasmania"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Beatson 2007"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <n v="27"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="West et al 2009"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="7"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang et al 2002"/>
+    <s v="Taiwan"/>
+    <s v="no"/>
+    <n v="11"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="breviceps &amp; sima, mix of stranded and bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="breviceps"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="9"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="breviceps"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sima"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="30"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="% by modified volume…. "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="5"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="breviceps &amp; sima, list of prey species, focused on ceph not diets"/>
+  </r>
+  <r>
+    <s v="Lagenorhynchus acutus"/>
+    <s v="SCANS III, Observe, t-NASS, Watl"/>
+    <s v="Hernandez-Milian et al 2016"/>
+    <s v="Ireland"/>
+    <s v="yes"/>
+    <n v="19"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Weinrich et al 2001"/>
+    <s v="New England"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Observation of feeding events on Ammodytes spp."/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Craddock et al 2009"/>
+    <s v="New England"/>
+    <s v="yes"/>
+    <n v="68"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="total weight, so %W could be computed, mix of stranded and bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Doksaeter et al 2008"/>
+    <s v="Mid-Atlantic Ridge"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="spatial correlations occurrence-prey"/>
+  </r>
+  <r>
+    <s v="Lagenorhynchus albirostris"/>
+    <s v="SCANS III, Observe, t-NASS, Watl "/>
+    <s v="Jansen et al 2010"/>
+    <s v="North Sea"/>
+    <s v="yes"/>
+    <n v="45"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Canning et al 2008"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="22"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fall et al 2014"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="spatial correlations occurrence-prey"/>
+  </r>
+  <r>
+    <s v="Lagenodelphis hosei"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA Poly + NC-WF"/>
+    <s v="Dolar et al 2003"/>
+    <s v="Philippines"/>
+    <s v="no"/>
+    <n v="37"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="bycaught, %N, %O, mix of fish, ceph and crustaceans"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="4"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="cephalopods only, 2 sp"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Cephalopods only"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang et al 2012"/>
+    <s v="Taiwan"/>
+    <s v="no"/>
+    <n v="27"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="%N, %O, mix of fish and ceph"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Cephalopods only"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="total weight, so %W could be computed, cephalopods only"/>
+  </r>
+  <r>
+    <s v="Lagenorhynchus obliquidens"/>
+    <s v="California current"/>
+    <s v="Dasom et al 2019"/>
+    <s v="Korea"/>
+    <s v="no"/>
+    <n v="15"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%O in abstract, article in Korean"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Heise 1996"/>
+    <s v="British Columbia"/>
+    <s v="no"/>
+    <n v="11"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%O, list of prey species + observation of feeding events and collecting leftovers"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Black 1994"/>
+    <s v="California"/>
+    <s v="yes"/>
+    <n v="16"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kajimura &amp; Fiscus 1980"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <n v="33"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="List of species in table, tedious "/>
+  </r>
+  <r>
+    <s v="Lissodelphis borealis"/>
+    <s v="California current"/>
+    <s v="Leatherwood &amp; Walker 1979"/>
+    <s v="Pacific NE coast"/>
+    <s v="yes"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="gives %O, %N from some studies, suggest main preys are cephalopods and myctophidae"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lipsky &amp; Brownell 2018"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="very general statements mentioning squid and lanternfish, cite Leatherwoord &amp; Walker 1979"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Jefferson et al 1994"/>
+    <s v="review"/>
+    <m/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Table 3 with list of prey species"/>
+  </r>
+  <r>
+    <s v="Megaptera novaeangliae"/>
+    <s v="t-NASS, REMMOA Ant + Guy, Watl &amp; GoM, California current, REMMOA NC-WF"/>
+    <s v="Watkins &amp; Schevill 1979"/>
+    <s v="Atl Wcoast"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events on small schooling fish"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Filatova et al 2013"/>
+    <s v="NW Pacific"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Isotope analysis, suggest feeding on fish in neritic waters and on plankton in oceanic waters"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Claham 2018"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Euphausiids an various species of small schooling fish (Clupea spp, Mallotus villosus, Ammodytes spp, Scomber scombrus)"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ryan et al 2014"/>
+    <s v="Celtic Sea"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis + bayesian modelling, small sample size"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fleming et al 2016"/>
+    <s v="California"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis over long period"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Witteven et al 2006"/>
+    <s v="Alaska"/>
+    <s v="no"/>
+    <n v="39"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Consumption modelling, use historical stomach content data from whaling, 78% Osmeridae 22 % Euphausiidae"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Witteven et al 2006"/>
+    <s v="Alaska"/>
+    <s v="no"/>
+    <n v="39"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis + bayesian modelling"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Haro et al 2016"/>
+    <s v="Magellan Strait"/>
+    <s v="no"/>
+    <n v="33"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <s v="Mesoplodon spp"/>
+    <s v="SCANS III, Observe, REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly"/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon bidens"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Pereira et al 2011"/>
+    <s v="Azores"/>
+    <s v="no but close "/>
+    <n v="10"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Mesoplodon bidens, %N"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wenzel et al 2013"/>
+    <s v="New England"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Mesoplodon bidens, bycaught, %N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2007"/>
+    <s v="Canary islands"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon densirostris"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2007"/>
+    <s v="Canary islands"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon europaeus"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="MacLeod et al 2003"/>
+    <s v="review"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="10 sp of Mesoplodon, confirm that fish are significant component of diet compared to other BW"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1996"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="13"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon layardii"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1996"/>
+    <s v="New Zealand"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon layardii"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Mesoplodon europaeus"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="16"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="4 sp"/>
+  </r>
+  <r>
+    <s v="Orcinus orca"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Ryan et al 2014"/>
+    <s v="Ireland"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Copepods and Mola mola remains"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Similä et al 1996"/>
+    <s v="North Norway"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="spatial correlations occurrence-prey, with herring, pollock and mackerel"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Saulitis et al 2000"/>
+    <s v="Alaska"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, difference transient/resident"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Vos et al 2006"/>
+    <s v="Alaska"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="List of species, transient one"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Volkova et al 2019"/>
+    <s v="Kamchatka"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of prey species, focused on ceph not diets"/>
+  </r>
+  <r>
+    <s v="Peponocephala electra"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA Poly + NC-WF"/>
+    <s v="Gross et al 2009"/>
+    <s v="Mayotte"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis, clear distinction from Stenella spp"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="West et al 2015"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="6"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="%W only for taxas, 30% und. Cephalopods and 5 % und. Fish…"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Young 1998"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="otoliths mentionned, and species of gelatinous pelagic cephalopods"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kiszka et al 2010"/>
+    <s v="French Polynesia"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Perryman 2018"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Preys found in stomachs : fish, squid, cuttlefish, shrimp of largely mesolpelagic origin"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Only one species consumed, and one individual…"/>
+  </r>
+  <r>
+    <s v="Phocoena phocoena"/>
+    <s v="SCANS III, Watl, Observe"/>
+    <s v="Santos et al 2014"/>
+    <s v="Iberian coast"/>
+    <s v="yes"/>
+    <n v="56"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2006"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="29"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2004"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="188"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Recchia &amp; Read 1989"/>
+    <s v="Bay of Fundy"/>
+    <s v="yes"/>
+    <n v="127"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught, distinction offshore and inshore"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Haelters et al 2012"/>
+    <s v="Belgium"/>
+    <s v="yes "/>
+    <n v="737"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%W in a graph with no values, lots of juveniles compared to adults"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos &amp; Pierce 2003"/>
+    <s v="NEA "/>
+    <s v="yes"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Phocoenoides dalli"/>
+    <s v="California current"/>
+    <s v="Walker 1996"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="85"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kajimura &amp; Fiscus 1980"/>
+    <m/>
+    <m/>
+    <n v="9"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%O, main prey species "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Jefferson 1988"/>
+    <m/>
+    <m/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="main prey species and food habits"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ohizumi et al 2003"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="326"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O, %W but only for squids"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ohizumi et al 2000"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <n v="150"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="caught, mean to do "/>
+  </r>
+  <r>
+    <s v="Physeter macrocephalus"/>
+    <s v="SCANS III, Observe, ASI, t-NASS, REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kawakami 1980"/>
+    <s v="review"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N in different places"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Garibaldi &amp; Michela 2014"/>
+    <s v="Pelagos"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="total weight, so %W could be computed"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 1999"/>
+    <s v="North Sea"/>
+    <s v="yes"/>
+    <n v="17"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="means computed with data of Santos et al 2002"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2002"/>
+    <s v="NEA "/>
+    <s v="yes"/>
+    <n v="7"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="means computed with data of Santos et al 1999"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Cherel 2021"/>
+    <s v="Southern ocean"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="n for different studies, taxonomy revisited"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Roberts 2003"/>
+    <s v="Greece"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="5"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Praca &amp; Gannier 2008"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="habitat modelling"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gomez-Villota 2007"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <n v="19"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%W in the text, whale by whale, tedious "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ruiz-Cooley et al 2004"/>
+    <s v="Gulf of California"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos &amp; Pierce 2005"/>
+    <s v="NEA "/>
+    <s v="yes"/>
+    <n v="24"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Niche overlap analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Flinn et al 2002"/>
+    <s v="British Columbia"/>
+    <s v="no but close "/>
+    <n v="697"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="whaling, %N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Young 1998"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="only cephalopods considered "/>
+  </r>
+  <r>
+    <s v="Pseudorca crassidens"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA Poly + NC-WF"/>
+    <s v="Alonso et al 1999"/>
+    <s v="Strait of Magellan"/>
+    <s v="no "/>
+    <n v="21"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Baird 2009"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Type of preys "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Hernàndez-Garcìa 2002"/>
+    <s v="Canary islands"/>
+    <s v="no but close "/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Milky substance "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ortega-Ortiz et al 2014"/>
+    <s v="Mexico"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Zaeschmar et al 2013"/>
+    <s v="New Zealand"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events on large demersal nrj rich fish"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="13"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of species "/>
+  </r>
+  <r>
+    <s v="Sotalia guianensis"/>
+    <s v="REMMOA Guy"/>
+    <s v="Costa et al 2020"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Daura-Jorge et al 2011"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="18"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Cremer et al 2012"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="7"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lopes et al 2012"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="18"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="But % in reference to fish and ceph separated! "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Pansard et al 2011"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="40"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Rodrigues et al 2012"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="42"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2007"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="But % in reference to fish and ceph separated! "/>
+  </r>
+  <r>
+    <s v="Sousa plumbea"/>
+    <s v="REMMOA Indian"/>
+    <s v="Barros &amp; Cockcroft 1991"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="list of preys, suggests a small diet overlap with Ttrunc, but would favor more estuarine preys"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Parra &amp; Jefferson 2018"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="very generalist statements suggest a generalist diet"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Plön et al 2015"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="very generalist statements suggest a generalist diet"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Lane et al 2014"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="5"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="no stomach content "/>
+  </r>
+  <r>
+    <s v="Stenella attenuata"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA Poly + NC-WF"/>
+    <s v="Perrin 2009"/>
+    <s v="review"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Feeding habits "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang et al 2003"/>
+    <s v="Taiwan"/>
+    <s v="no"/>
+    <n v="45"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang et al 2012"/>
+    <s v="Taiwan"/>
+    <s v="no"/>
+    <n v="45"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Same results as Wang et al 2003, diet overlap with other species "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Young 1998"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A few species mentionned"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gross et al 2009"/>
+    <s v="Mayotte"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <s v="Stenella coeruleoalba"/>
+    <s v="SCANS III, Observe, ASI, REMMOA Ant, Watl &amp; GoM, Hawai, California current"/>
+    <s v="Würtz et al 1993"/>
+    <s v="Pelagos"/>
+    <s v="yes"/>
+    <n v="23"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aznar et al 2017"/>
+    <s v="Wmed"/>
+    <s v="yes"/>
+    <n v="27"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="only results for NE3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ringelstein et al 2006"/>
+    <s v="Oceanic Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="60"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2008"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="20"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2006"/>
+    <s v="Neritic Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="32"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Marçalo et al 2021"/>
+    <s v="Iberian coast"/>
+    <s v="yes"/>
+    <n v="36"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Blanco et al 1995"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <n v="28"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="epizootic event"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Dede et al 2016"/>
+    <s v="Emed"/>
+    <s v="yes"/>
+    <n v="6"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Doksaeter et al 2008"/>
+    <s v="Mid-Atlantic Ridge"/>
+    <s v="no but close "/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="spatial correlations occurrence-prey"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Meissner et al 2011"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Isotope analysis, comparison with Atlantic"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Öztürk et al 2007"/>
+    <s v="EMed"/>
+    <s v="yes"/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Perrin et al 2008"/>
+    <s v="Eastern Tropical Pacific"/>
+    <s v="no but close "/>
+    <n v="131"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="11"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mix of stranded and bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Varela et al 2018"/>
+    <s v="Strait of Gibraltar"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Isotope analysis"/>
+  </r>
+  <r>
+    <s v="Stenella clymene"/>
+    <s v="REMMOA Ant, Watl &amp; GoM"/>
+    <s v="Hernàndez-Orts et al 2021"/>
+    <s v="Argentina"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="List of species"/>
+  </r>
+  <r>
+    <s v="Stenella frontalis"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM"/>
+    <s v="Lopes et al 2012"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="9"/>
+    <s v="yes"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="bycaught, but %W for total ceph and total fish separated! Email sent to author"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Malinowski et al 2015"/>
+    <s v="Bahamas"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Observation of feeding events, list of preys "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="6"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mainly bycaught, W in g but %W computable, not mentionned how computed"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="6"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="no %W but only 1 sp found"/>
+  </r>
+  <r>
+    <s v="Stenella longirostris"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, REMMOA Poly + NC-WF"/>
+    <s v="Silva et al 2004"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of vomiting behaviour mentions consumption of cephalopods"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Salum Soud 2010"/>
+    <s v="Zanzibar"/>
+    <s v="no but close "/>
+    <n v="52"/>
+    <s v="yes/no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="bycaught, only abstract with some %W but not up to 100%"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Dolar et al 2003"/>
+    <s v="Philippines"/>
+    <s v="no"/>
+    <n v="45"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kiszka et al 2010"/>
+    <s v="French Polynesia"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Clarke &amp; Young 1998"/>
+    <s v="Hawaï"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Species mentionned"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gross et al 2009"/>
+    <s v="Mayotte"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <s v="Steno bredanensis"/>
+    <s v="REMMOA Ant + Guy, Watl &amp; GoM, Hawai, REMMOA Poly"/>
+    <s v="Lodi &amp; Hetzel 1999"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, list of preys "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="West et al 2011"/>
+    <s v="review"/>
+    <m/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of species found in stomach contents in different places"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wedekin et al 2005"/>
+    <s v="Brazil"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, 2 prey species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Pitman &amp; Stinchcomb 2002"/>
+    <s v="Mexico"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, one prey "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Ortega-Ortiz et al 2014"/>
+    <s v="Mexico"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Observation of feeding events, few prey species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Jefferson 2009"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Kiszka et al 2010"/>
+    <s v="French Polynesia"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="2"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="List of species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="no %W but only 1 sp found"/>
+  </r>
+  <r>
+    <s v="Tursiops aduncus"/>
+    <s v="REMMOA Indian, REMMOA NC-WF"/>
+    <s v="Gross et al 2009"/>
+    <s v="Mayotte"/>
+    <s v="yes"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="isotope analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Smith &amp; Sprogis"/>
+    <s v="Australia"/>
+    <s v="no"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Observation of feeding event on Sepia apama"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Wang &amp; Shih Chu 2009"/>
+    <s v="encyclopedia of MM"/>
+    <s v="no"/>
+    <s v="review"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Families and ecology of preys"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Mizhari et al 2009"/>
+    <s v="Egypt"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Identification of preys regurgitated"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Amir 2004"/>
+    <s v="Zanzibar"/>
+    <s v="no but close "/>
+    <n v="35"/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="McCluskey et al 2020"/>
+    <s v="Australia"/>
+    <s v="no"/>
+    <n v="10"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="isotope analysis also,  mention prey families, fish, cephalopos and crustaceans "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Takahashi et al 2020"/>
+    <s v="Japan"/>
+    <s v="no"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sprogis et al 2017"/>
+    <s v="Australia"/>
+    <s v="no"/>
+    <m/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Observation of feeding events on octopus"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Amir et al 2005"/>
+    <s v="Zanzibar"/>
+    <s v="no but close "/>
+    <n v="26"/>
+    <s v="yes"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="bycaught"/>
+  </r>
+  <r>
+    <s v="Tursiops truncatus "/>
+    <s v="SCANS III, Observe, ASI, REMMOA Ant + Guy, Watl &amp; GoM, Observe, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Santos et al 2007"/>
+    <s v="Iberian coast"/>
+    <s v="yes"/>
+    <n v="82"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Spitz et al 2006"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="25"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2001"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Hernandez-Milian et al 2015"/>
+    <s v="Ireland"/>
+    <s v="yes"/>
+    <n v="12"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Louis et al 2014"/>
+    <s v="Oceanic Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="24"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Gannon &amp; Waples 2004"/>
+    <s v="North Carolina"/>
+    <s v="yes"/>
+    <n v="146"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Only one individual, and there is already plenty from other sources (only 2 species found)"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="McCabe et al 2010"/>
+    <s v="Florida"/>
+    <s v="yes"/>
+    <n v="15"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Blanco et al 2001"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <n v="16"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%N, %O"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Aguiar dos Santos &amp; Haimovici 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="3"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="List of species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Di Beneditto et al 2001"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="4"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="List of species"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="César de Oliveira Santos et al 2002"/>
+    <s v="South Brazil"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Prey species "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="10"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="% by modified volume… "/>
+  </r>
+  <r>
+    <s v="Ziphius cavirostris"/>
+    <s v="SCANS III, Observe, ASI, REMMOA Ant + Guy, Watl &amp; GoM, REMMOA Indian, Hawai, California current, REMMOA Poly + NC-WF"/>
+    <s v="Spitz et al 2011"/>
+    <s v="Bay of Biscay"/>
+    <s v="yes"/>
+    <n v="10"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2007"/>
+    <s v="Canary islands"/>
+    <s v="no but close "/>
+    <n v="7"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="West et al 2017"/>
+    <s v="North Pacific"/>
+    <s v="not yet "/>
+    <n v="16"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2001"/>
+    <s v="Scotland"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mean between the 3 ind to be computed"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos et al 2001"/>
+    <s v="Galicia"/>
+    <s v="yes"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Blanco &amp; Raga 2000"/>
+    <s v="WMed"/>
+    <s v="yes"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mean between the 2 ind to be computed"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Sekiguchi et al 1992"/>
+    <s v="South Africa"/>
+    <s v="no but close "/>
+    <n v="4"/>
+    <s v="yes"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Fernandez et al 2009"/>
+    <s v="Canary islands"/>
+    <s v="no"/>
+    <n v="1"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Contained only ceph eye lenses "/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="Santos &amp; Pierce 2005"/>
+    <s v="NEA "/>
+    <s v="yes"/>
+    <n v="4"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Niche overlap analysis"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <s v="MacLeod et al 2003"/>
+    <s v="review"/>
+    <m/>
+    <n v="38"/>
+    <s v="no"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="%W but only for main items"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0CBD79A-59C5-4B44-AFC8-A99E3FDE4460}" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Source" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,13 +5718,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87309562-F583-482C-BE95-E0FCAAC468DB}">
+  <dimension ref="A3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="37">
+        <v>180</v>
+      </c>
+      <c r="C5" s="37">
+        <v>69</v>
+      </c>
+      <c r="D5" s="37">
+        <v>39</v>
+      </c>
+      <c r="E5" s="37">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C21C1B7-0691-4C42-83DC-044F5B147C7F}">
   <dimension ref="A1:S289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="560" topLeftCell="A48" activePane="bottomLeft"/>
-      <selection activeCell="C45" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="560" activePane="bottomLeft"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5074,7 +8761,7 @@
       <c r="A110" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="31"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="3" t="s">
         <v>33</v>
       </c>
@@ -5099,7 +8786,7 @@
     </row>
     <row r="111" spans="1:10" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="29"/>
-      <c r="B111" s="32"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="10" t="s">
         <v>399</v>
       </c>
@@ -5880,7 +9567,7 @@
       <c r="A139" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="34" t="s">
         <v>314</v>
       </c>
       <c r="C139" s="20" t="s">
@@ -5910,7 +9597,7 @@
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="28"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="11" t="s">
         <v>519</v>
       </c>
@@ -5938,7 +9625,7 @@
     </row>
     <row r="141" spans="1:10" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="29"/>
-      <c r="B141" s="32"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="13" t="s">
         <v>520</v>
       </c>
@@ -9242,10 +12929,10 @@
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A267" s="33" t="s">
+      <c r="A267" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B267" s="33" t="s">
+      <c r="B267" s="31" t="s">
         <v>322</v>
       </c>
       <c r="C267" s="11" t="s">
@@ -9271,8 +12958,8 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A268" s="34"/>
-      <c r="B268" s="34"/>
+      <c r="A268" s="32"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="11" t="s">
         <v>12</v>
       </c>
@@ -9296,8 +12983,8 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A269" s="34"/>
-      <c r="B269" s="34"/>
+      <c r="A269" s="32"/>
+      <c r="B269" s="32"/>
       <c r="C269" s="11" t="s">
         <v>141</v>
       </c>
@@ -9321,8 +13008,8 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A270" s="34"/>
-      <c r="B270" s="34"/>
+      <c r="A270" s="32"/>
+      <c r="B270" s="32"/>
       <c r="C270" s="11" t="s">
         <v>277</v>
       </c>
@@ -9346,8 +13033,8 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
+      <c r="A271" s="32"/>
+      <c r="B271" s="32"/>
       <c r="C271" s="11" t="s">
         <v>278</v>
       </c>
@@ -9371,8 +13058,8 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A272" s="34"/>
-      <c r="B272" s="34"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="11" t="s">
         <v>279</v>
       </c>
@@ -9396,8 +13083,8 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A273" s="34"/>
-      <c r="B273" s="34"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="32"/>
       <c r="C273" s="11" t="s">
         <v>422</v>
       </c>
@@ -9424,8 +13111,8 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A274" s="34"/>
-      <c r="B274" s="34"/>
+      <c r="A274" s="32"/>
+      <c r="B274" s="32"/>
       <c r="C274" s="11" t="s">
         <v>280</v>
       </c>
@@ -9452,8 +13139,8 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A275" s="34"/>
-      <c r="B275" s="34"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="32"/>
       <c r="C275" s="11" t="s">
         <v>282</v>
       </c>
@@ -9480,8 +13167,8 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A276" s="34"/>
-      <c r="B276" s="34"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="32"/>
       <c r="C276" s="11" t="s">
         <v>103</v>
       </c>
@@ -9508,8 +13195,8 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A277" s="34"/>
-      <c r="B277" s="34"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="32"/>
       <c r="C277" s="11" t="s">
         <v>75</v>
       </c>
@@ -9536,8 +13223,8 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A278" s="34"/>
-      <c r="B278" s="34"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="32"/>
       <c r="C278" s="11" t="s">
         <v>391</v>
       </c>
@@ -9564,8 +13251,8 @@
       </c>
     </row>
     <row r="279" spans="1:10" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="35"/>
-      <c r="B279" s="35"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="33"/>
       <c r="C279" s="13" t="s">
         <v>33</v>
       </c>
@@ -9859,21 +13546,60 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S289" xr:uid="{5C21C1B7-0691-4C42-83DC-044F5B147C7F}"/>
   <mergeCells count="82">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="A258:A266"/>
+    <mergeCell ref="B258:B266"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A142:A149"/>
+    <mergeCell ref="A88:A101"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="B280:B289"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="A280:A289"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A248:A257"/>
+    <mergeCell ref="A267:A279"/>
+    <mergeCell ref="A166:A171"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A221:A235"/>
+    <mergeCell ref="A160:A165"/>
+    <mergeCell ref="A183:A196"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B267:B279"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="B150:B159"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="B221:B235"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B178:B182"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="B183:B196"/>
@@ -9890,58 +13616,20 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B267:B279"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="B150:B159"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="B221:B235"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B280:B289"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="A280:A289"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A248:A257"/>
-    <mergeCell ref="A267:A279"/>
-    <mergeCell ref="A166:A171"/>
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A221:A235"/>
-    <mergeCell ref="A160:A165"/>
-    <mergeCell ref="A183:A196"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A258:A266"/>
-    <mergeCell ref="B258:B266"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A142:A149"/>
-    <mergeCell ref="A88:A101"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
